--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3818.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3818.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.534492584849406</v>
+        <v>7.392889022827148</v>
       </c>
       <c r="B1">
-        <v>2.004005245880196</v>
+        <v>5.523151397705078</v>
       </c>
       <c r="C1">
-        <v>3.115443964720145</v>
+        <v>4.558609485626221</v>
       </c>
       <c r="D1">
-        <v>5.699979871271353</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>0.6412167813025166</v>
+        <v>3.286228895187378</v>
       </c>
     </row>
   </sheetData>
